--- a/storage/import/user_template_sumo.xlsx
+++ b/storage/import/user_template_sumo.xlsx
@@ -694,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/storage/import/user_template_sumo.xlsx
+++ b/storage/import/user_template_sumo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="121">
   <si>
     <t>username</t>
   </si>
@@ -346,6 +346,42 @@
   </si>
   <si>
     <t>4stelagasari</t>
+  </si>
+  <si>
+    <t>COMPLETEME</t>
+  </si>
+  <si>
+    <t>AMAZY</t>
+  </si>
+  <si>
+    <t>TKANAN</t>
+  </si>
+  <si>
+    <t>CMULIA</t>
+  </si>
+  <si>
+    <t>completeme</t>
+  </si>
+  <si>
+    <t>amazy</t>
+  </si>
+  <si>
+    <t>tkanan</t>
+  </si>
+  <si>
+    <t>cmulia</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>AUDIT</t>
+  </si>
+  <si>
+    <t>AUDITOR</t>
+  </si>
+  <si>
+    <t>EXECUTOR</t>
   </si>
 </sst>
 </file>
@@ -448,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,7 +1872,119 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+      <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/storage/import/user_template_sumo.xlsx
+++ b/storage/import/user_template_sumo.xlsx
@@ -378,10 +378,10 @@
     <t>AUDIT</t>
   </si>
   <si>
-    <t>AUDITOR</t>
-  </si>
-  <si>
     <t>EXECUTOR</t>
+  </si>
+  <si>
+    <t>MEGA</t>
   </si>
 </sst>
 </file>
@@ -731,7 +731,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1968,7 @@
         <v>117</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1980,7 +1980,7 @@
         <v>118</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>12</v>
